--- a/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S13/S13_storagemod.xlsx
+++ b/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S13/S13_storagemod.xlsx
@@ -14,150 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Frequency (Hz)</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>0.01661078008512293</t>
-  </si>
-  <si>
-    <t>0.025388767646845334</t>
-  </si>
-  <si>
-    <t>0.04010003850575941</t>
-  </si>
-  <si>
-    <t>0.06407911178744864</t>
-  </si>
-  <si>
-    <t>0.10098704233338529</t>
-  </si>
-  <si>
-    <t>0.15073520843365043</t>
-  </si>
-  <si>
-    <t>0.24021963502196725</t>
-  </si>
-  <si>
-    <t>0.5856963042707153</t>
-  </si>
-  <si>
-    <t>0.9263033687107032</t>
-  </si>
-  <si>
-    <t>1.5127514564419908</t>
-  </si>
-  <si>
-    <t>2.27753198924844</t>
-  </si>
-  <si>
-    <t>3.6001831306360796</t>
-  </si>
-  <si>
-    <t>5.55533407242758</t>
-  </si>
-  <si>
-    <t>9.449225463227329</t>
-  </si>
-  <si>
-    <t>13.99126566465181</t>
-  </si>
-  <si>
-    <t>21.634067569512467</t>
-  </si>
-  <si>
-    <t>34.37919268013539</t>
-  </si>
-  <si>
-    <t>54.32138345834773</t>
-  </si>
-  <si>
-    <t>84.44338041073351</t>
-  </si>
-  <si>
-    <t>129.1454047869656</t>
-  </si>
-  <si>
-    <t>204.05324511906355</t>
-  </si>
-  <si>
-    <t>327.71605290637865</t>
-  </si>
-  <si>
-    <t>501.0964054311461</t>
-  </si>
-  <si>
-    <t>1471.9565121012135</t>
-  </si>
-  <si>
-    <t>1466.2340731842237</t>
-  </si>
-  <si>
-    <t>1530.423745018943</t>
-  </si>
-  <si>
-    <t>1963.7159960194595</t>
-  </si>
-  <si>
-    <t>2349.0679065868603</t>
-  </si>
-  <si>
-    <t>2848.6121071140333</t>
-  </si>
-  <si>
-    <t>3662.234369537201</t>
-  </si>
-  <si>
-    <t>6029.483334989311</t>
-  </si>
-  <si>
-    <t>8901.173356983394</t>
-  </si>
-  <si>
-    <t>11376.864097447571</t>
-  </si>
-  <si>
-    <t>15597.247727020207</t>
-  </si>
-  <si>
-    <t>20169.64691927073</t>
-  </si>
-  <si>
-    <t>28638.39928692275</t>
-  </si>
-  <si>
-    <t>35619.051429177794</t>
-  </si>
-  <si>
-    <t>44647.72170400428</t>
-  </si>
-  <si>
-    <t>53409.21516639657</t>
-  </si>
-  <si>
-    <t>66427.79028060395</t>
-  </si>
-  <si>
-    <t>76875.41813151976</t>
-  </si>
-  <si>
-    <t>89313.44629940286</t>
-  </si>
-  <si>
-    <t>104101.24671106221</t>
-  </si>
-  <si>
-    <t>119710.03342994521</t>
-  </si>
-  <si>
-    <t>137891.7334629087</t>
-  </si>
-  <si>
-    <t>152291.5676021415</t>
+    <t>Storage modulus (Pa)</t>
   </si>
 </sst>
 </file>
@@ -530,187 +392,187 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
+      <c r="A2">
+        <v>0.01661078008512293</v>
+      </c>
+      <c r="B2">
+        <v>1471.956512101214</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
+      <c r="A3">
+        <v>0.02538876764684533</v>
+      </c>
+      <c r="B3">
+        <v>1466.234073184224</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
+      <c r="A4">
+        <v>0.04010003850575941</v>
+      </c>
+      <c r="B4">
+        <v>1530.423745018943</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
+      <c r="A5">
+        <v>0.06407911178744864</v>
+      </c>
+      <c r="B5">
+        <v>1963.715996019459</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
+      <c r="A6">
+        <v>0.1009870423333853</v>
+      </c>
+      <c r="B6">
+        <v>2349.06790658686</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
+      <c r="A7">
+        <v>0.1507352084336504</v>
+      </c>
+      <c r="B7">
+        <v>2848.612107114033</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
+      <c r="A8">
+        <v>0.2402196350219672</v>
+      </c>
+      <c r="B8">
+        <v>3662.234369537201</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
+      <c r="A9">
+        <v>0.5856963042707153</v>
+      </c>
+      <c r="B9">
+        <v>6029.483334989311</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
+      <c r="A10">
+        <v>0.9263033687107032</v>
+      </c>
+      <c r="B10">
+        <v>8901.173356983394</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
+      <c r="A11">
+        <v>1.512751456441991</v>
+      </c>
+      <c r="B11">
+        <v>11376.86409744757</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
+      <c r="A12">
+        <v>2.27753198924844</v>
+      </c>
+      <c r="B12">
+        <v>15597.24772702021</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
+      <c r="A13">
+        <v>3.60018313063608</v>
+      </c>
+      <c r="B13">
+        <v>20169.64691927073</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
+      <c r="A14">
+        <v>5.55533407242758</v>
+      </c>
+      <c r="B14">
+        <v>28638.39928692275</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>38</v>
+      <c r="A15">
+        <v>9.449225463227329</v>
+      </c>
+      <c r="B15">
+        <v>35619.05142917779</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>39</v>
+      <c r="A16">
+        <v>13.99126566465181</v>
+      </c>
+      <c r="B16">
+        <v>44647.72170400428</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>40</v>
+      <c r="A17">
+        <v>21.63406756951247</v>
+      </c>
+      <c r="B17">
+        <v>53409.21516639657</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>41</v>
+      <c r="A18">
+        <v>34.37919268013539</v>
+      </c>
+      <c r="B18">
+        <v>66427.79028060395</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>42</v>
+      <c r="A19">
+        <v>54.32138345834773</v>
+      </c>
+      <c r="B19">
+        <v>76875.41813151976</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>43</v>
+      <c r="A20">
+        <v>84.44338041073351</v>
+      </c>
+      <c r="B20">
+        <v>89313.44629940286</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>44</v>
+      <c r="A21">
+        <v>129.1454047869656</v>
+      </c>
+      <c r="B21">
+        <v>104101.2467110622</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>45</v>
+      <c r="A22">
+        <v>204.0532451190635</v>
+      </c>
+      <c r="B22">
+        <v>119710.0334299452</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>46</v>
+      <c r="A23">
+        <v>327.7160529063786</v>
+      </c>
+      <c r="B23">
+        <v>137891.7334629087</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>47</v>
+      <c r="A24">
+        <v>501.0964054311461</v>
+      </c>
+      <c r="B24">
+        <v>152291.5676021415</v>
       </c>
     </row>
   </sheetData>
